--- a/business-center/wms-center/wms-service/wms-business-delivery/src/main/resources/template/CombinedParcelOutboundTemplate_en.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-delivery/src/main/resources/template/CombinedParcelOutboundTemplate_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Order Number</t>
+    <t>Order Number
+（Required）</t>
   </si>
   <si>
-    <t>Reason For Checking</t>
-  </si>
-  <si>
-    <t>Remark</t>
+    <t>Reason For Checking
+（Required）</t>
   </si>
 </sst>
 </file>
@@ -35,7 +34,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -51,12 +50,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -223,115 +216,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,48 +527,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,108 +581,102 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1016,33 +1006,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="28.6333333333333" customWidth="1"/>
     <col min="2" max="2" width="21.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37" customHeight="1" spans="1:3">
+    <row r="1" ht="37" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/business-center/wms-center/wms-service/wms-business-delivery/src/main/resources/template/CombinedParcelOutboundTemplate_en.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-delivery/src/main/resources/template/CombinedParcelOutboundTemplate_en.xlsx
@@ -4,24 +4,49 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850"/>
+    <workbookView windowWidth="18530" windowHeight="7270"/>
   </bookViews>
   <sheets>
-    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="查件表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xooxb</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当查件原因为其他时，备注必填。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Order Number
-（Required）</t>
+    <t>订单号
+（必填）</t>
   </si>
   <si>
-    <t>Reason For Checking
-（Required）</t>
+    <t>查件原因
+（必填）</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -34,7 +59,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -50,6 +75,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -200,6 +231,11 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -216,6 +252,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,12 +361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,51 +563,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,94 +614,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -679,8 +715,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1006,32 +1042,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.3666666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="16.7181818181818" customWidth="1"/>
+    <col min="3" max="3" width="14.1272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37" customHeight="1" spans="1:2">
+    <row r="1" ht="37" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"轨迹未更新,妥投未收到,未上网,轨迹显示退回但是没收到退回反馈,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>